--- a/침구데이터.xlsx
+++ b/침구데이터.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KAIROS6\acu_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FCB7CC-6E49-41F2-B647-27B96C4FE93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440CFC61-AC58-4A4F-9807-9834490CC5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4416" uniqueCount="3044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4532" uniqueCount="3154">
   <si>
     <t>Id</t>
   </si>
@@ -82802,12 +82802,5980 @@
     <t>疳证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>健</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运牌胃、补益气血、消积导滞，针灸并用，平补平泻</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>缝、中脘、足三里、脾俞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>疳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>气加章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、胃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>俞健运脾胃；
+疳积加建里、天枢、三阴交消积导滞；
+干疳加肝俞、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>膈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>俞调养气血；
+虫积加百虫窝驱虫消积</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缝穴应在严格消毒后用三棱针点刺，挤出少量黄水或乳白色黏液；
+背部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>腧穴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门不可直刺、深刺，以防伤及内脏；
+其余</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>腧穴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常规针刺。不留或少留针</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗尿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾气不足、肺脾气虚者温补肾阳、补益肺脾，针灸并用，补法；
+下焦湿热者清热</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>湿、调理膀胱，只针不灸，泻法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>极、关元、膀胱俞、三阴交</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾气不足加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>气海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、肾俞以补肾培元；
+肺脾气虚加肺俞、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>脾俞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、足三里补肺脾之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>，以增收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>涩固脱之力；
+下焦湿热加曲骨、明陵泉清利湿热、调理膀胱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>极、关元直刺或向下斜刺，使针感下达阴部为佳；
+肾俞、关元可行温针灸或隔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>附子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饼灸；
+其余穴位常规针刺</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑瘫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补益肝肾、益气养血、疏通经络、强筋壮骨，针灸并用，补法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大椎、身柱、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>风府、四神聪、悬钟、阳陵泉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>肝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾不足加肝俞、肾俞、太溪、三明交补养肝肾；
+脾胃虚弱加中脘、脾俞、足三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>里健</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运脾胃；
+上、下肢瘫痪分别加曲池、手三里、合谷、外关、伏兔、环跳、风市、委中、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>承山、丰隆等疏通肢体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经气</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风府朝鼻尖以下方向针刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左右</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>，切勿向上深刺，以免</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>误入枕骨大孔；
+四神聪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>别从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不同方位刺向百</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会穴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>背俞穴宜斜刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>浅刺；
+其余穴位常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规针刺</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意力缺陷多动症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾虚肝亢者，调养肝肾、育阴潜阳，以针为主，平补平泻；
+心脾两虚者，补益心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>脾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>、安神定志，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针灸并用，补法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>门、内关、三阴交、太溪、太冲、四神聪</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾虚肝亢加肾俞、行间补肾填精、平降肝阳；
+心脾两虚加心俞、脾俞、足三里益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>养</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>心脾</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>四神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>聪分别从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>个不同方位刺向百会穴；
+背</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>俞穴不宜直刺、深刺，以防伤及内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脏；
+其余腧穴常规针刺</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妇科病症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经前期紧张综合征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">气血不足者益气养血，针灸并用，补法；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>肝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>滋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>养肝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为主，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">泻；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>痰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浊上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>者化痰通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>络，气滞血瘀者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活血，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>均以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为主，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泻法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神门、百会、太冲、三阴交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气血不足加足三里、脾俞培补后天之本；
+肝肾阴虚加太溪、肝俞补肝肾、益精血、养血柔肝；
+痰浊上扰加脾俞、丰隆祛湿化痰；
+气滞血瘀加合谷、膈俞行气活血；
+头痛、眩晕加印堂、太阳调神止痛；
+乳房胀痛加内关、期门行气止痛；
+情志异常、烦躁易怒加水沟、神庭安神定志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>诸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>穴以常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>规针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主。脾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>俞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、肝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>俞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、膈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>俞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>穴向下或朝脊柱方向斜刺，不宜直刺、深刺，以免刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伤内脏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>经来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>潮前3~5天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>始治</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>疗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月经不调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>气虚、血虚、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾虚者益气养血、补肾调经、针灸并用，补法；
+血寒者温经散寒、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>理冲任</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针灸并用，平补平泻；
+气郁、血热者疏肝理气、清热调经，只针不灸，泻法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>关元、血海、三阴交</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>气虚加足三里、脾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">俞健脾胃、益气血；
+血虚加脾俞、膈俞令气血生化之源旺盛；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾虚加肾俞、太溪调补肾气；
+气郁加太冲、期门疏肝解郁；
+血热加行间、地机清泻血分之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">热；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>血寒加灸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>归来、命门温通胞脉、活血通经</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诸穴以常规操作为主。脾俞、膈俞穴向下或朝脊柱方向斜刺，不宜直刺、深刺；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚或血寒者可在腹部穴位加灸。于月经来潮前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3~5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开始治疗，若行经时间不能掌握，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>于月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经干净之日起针灸。隔日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>，直到月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经来潮时为止。连续治疗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2~3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经周期。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>湿凝滞、气滞血瘀者温</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经散寒、化瘀止痛，针灸并用，泻法；
+气血不足者益气养血、调补冲任，针灸并用，补法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>关元、三阴交、地机、十七椎</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>湿凝滞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加灸水道温经止痛，气血</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>瘀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>滞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加合谷、太冲、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>髎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调气活血；
+气血不足</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加血海、脾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>俞，足三里益气养血止痛</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针刺关元，宜用连续捻转手法，使针感向下传导；
+寒凝血瘀者针后在小腹部穴位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>。月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经来潮前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3~5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开始治疗，发作期每日治疗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1~2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间歇期可隔日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>肝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾亏虚、气血不足者补益肝肾、充养气血，针灸并用，补法；
+气滞血瘀、寒湿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>凝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>滞者活血化瘀、温</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经散寒，针灸并用，泻法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>元、三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>交</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>天枢、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>合谷、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾俞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>肝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾亏虚加肝俞、太溪补益肝肾、调理冲任；
+气血不足加气海、血海、脾俞、足三里健脾养胃以化生气血；
+气滞血瘀加太冲、期门、膈俞行气活血、化密通经；
+寒湿凝滞加命门、大椎温经散寒、祛湿行滞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>膈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>俞、脾俞向下或脊柱方向斜刺，不宜直刺、深刺；
+气血不足、寒湿凝滞者可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">在背部穴或腹部穴加灸；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>气滞血瘀者可配合刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>络拔罐。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崩漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>血</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内扰、气滞血瘀者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>清</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热凉血、行气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>化瘀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，只针不灸，泻法；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亏虚、气血</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不足者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>温</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾助阳、补气摄血，针灸并用，补法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关元、三阴交、隐白、血海、膈俞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>血</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热内扰加大敦、行间、期门清泻血中之热；
+气滞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>血瘀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加合谷、太冲理气化瘀，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使血有所</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>归；
+肾阳亏虚加灸气海、命门温补下元；
+气血不足加灸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>脾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>俞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>足三里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补气摄血、养</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>血</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调经</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">关元、气海针尖向下斜刺，使针感传至耻骨联合上下；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>膈俞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、脾俞穴向下或脊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>柱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方向斜刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">，不宜直刺、深刺；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>血瘀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>可配合刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>络法；
+肾阳亏虚、气血不足可在腹部和背</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>穴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>葹灸</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带下病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>湿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热下注者清热利湿，只针不灸，泻法；
+脾虚湿困、肾阳不足者健脾益肾，针灸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>并</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补法；
+肾阴亏虚者养阴清热，以针刺为主，平补平泻</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>带脉、关元、三阴交、白环俞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>湿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热下注加中极、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次髎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>清利下焦湿热；
+脾虚湿困加脾俞、足三里健脾化湿；
+肾阴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚、肾阳不足加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾俞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、太溪、命门补肾培元、调节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阴阳</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诸穴以常规针刺为主；
+关元、气海针尖向下斜刺，使针感传至耻骨联合上下；
+帶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>脉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向前斜刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>，不宜深刺；
+白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>环俞直刺，使骶部出现强的酸胀感</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盆腔炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>清</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>湿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>、行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>活血、化瘀止痛，只</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>不灸，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>带脉、中极、次髎、三阴交</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>湿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热下注加蠡沟、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阴陵泉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>清肝利胆、祛下焦湿浊；
+气滞血瘀加太冲、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>膈俞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行气活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>血</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>、化瘀止痛。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">带脉向前斜刺；
+中极在排空小便的情况下直刺；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次髎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向耻骨联合方向斜刺，通向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>骶骨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孔直</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>达盆腔，以少腹部有胀感为度，不宜过深，以防刺伤直肠。各穴均以捻转泻法为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>主</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴痒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝经湿热者清热利湿、杀虫止痒，只针不灸，泻法；
+肝肾阴虚者调补肝肾、养阴止痒，以针为主，平补平泻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蠡沟、太冲、中极、三阴交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经湿热</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>加行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>、曲骨清</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>湿热</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>、止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>带浊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>疗阴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">痒；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>肝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾阴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加曲泉、太溪、照海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>养</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>清</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调带止痒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；
+其他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>腧穴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>刺</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>蠡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沟针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>尖向上斜刺，使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>感向大腿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内侧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>放射；中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>尖稍向下斜刺，使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>感向前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>放散</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；
+其他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>腧穴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常规针刺</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妊娠呕吐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>健脾化痰、舒肝和胃、降逆止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>呕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>，脾胃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>弱、痰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>阻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>灸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>用，肝胃不和者只</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>不灸，均平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泻</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>中脘、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>内关、公孙、足三里</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>脾胃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>虚弱加灸脾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">俞、胃俞以助中用、健脾止呕；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>肝胃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不和加期门、太冲舒肝理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>气、平降冲逆；
+痰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饮阻滞加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陵泉、丰隆健脾利湿、化饮降浊；
+眩晕者加百会、风池清醒头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目；
+神倦嗜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卧者加灸百会、气海益气养血；
+厌食者灸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>中脘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、天枢疏导肠胃、开胃进食；
+少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>寐、多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>梦、心悸者加心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>俞、神门宁心安神</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>内关穴浅刺、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻刺；
+腹部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>腧穴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>刺入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深度以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左右</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为宜，慎用提插法；
+脾胃虚弱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>痰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饮阻滞证亦可用温针灸法；
+所有穴位均平补平泻。治虚不用补法是唯恐补法助浊气上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">逆；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>治</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实不用泻法是唯恐泻法损伤胎气，发生意外</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胎位不正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>益肾暖胞、健脾化湿、疏肝解郁、调理胞宫气血，肾虚寒凝、脾虚湿滞者针灸并用，补法；
+肝气郁结者只针不灸，平补平泻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至阴、太溪、三阴交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">肾虚寒凝加灸气海、肾俞益肾暖胞以助胎气；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>脾虚湿滞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加阴陵泉、丰降健脾化浊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">导湿滞；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肝气郁结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结加太冲、期门疏肝解郁、理气行滞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>孕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>妇排空小便，解松腰带，坐于靠背椅上或半仰卧于床上。至阴穴以艾条温和灸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或雀啄灸，每次15~20分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钟；
+也可用小艾炷灸，每次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7~10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>壮；
+太溪、三阴交</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针刺补法或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补平泻（肾虚寒凝、脾虚湿滞者可加温针灸）。每日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1~2次，至胎位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转正为止</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滞产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调理气血、行滞催产，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>只</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针不灸，泻法为主，补泻兼施。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">虚弱者针灸并用，补法为主，补泻兼施；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滞血痰者</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>膻中、合谷、三阴交、至阴、独阴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>气血虚弱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">者加足三里补益气血、助力降胎；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>气滞血瘀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>者加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>太冲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>理气行滞、化力催</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">产；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>神疲心悸者灸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>气海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针内关，益气宁心；
+腹痛剧烈者灸气冲、针地机、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通络</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>止痛</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针膻中将针尖向下平刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1~1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>，以提</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>插配合捻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补法或平补平泻法，使气向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">行至腹部；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>合谷直刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左右</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补法；
+三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交直刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左右</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泻法；
+至明、独阴斜刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">左右；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>腹部穴位只用灸法，不宜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针刺。留针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时左右或至产妇宫缩规律而有力为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>。留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针期间，每隔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钟左右行针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胞衣不下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>补益元气、理气化瘀、温经散寒，针灸并用，气虚证用补法，血瘀、寒凝证用泻法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气海、关元、三阴交、独阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>虚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>膻中、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>足三里补气而运胞宫；
+血瘀加中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>极、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>天枢、地机理气化瘀而下胞衣；
+寒邪凝滞加灸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>神阙、气穴温通胞脉、化浊导滞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">气海、关元忌深刺，以防刺伤胞宫，行补法或施灸，亦可行温针灸法；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阴交、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>独</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泻法为主，补</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泻兼施，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>亦可加灸</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶露不绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>固</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摄冲任、清热凉血、散瘀止血，气虚者针灸并用，补法；
+血热、气血瘀滞者只针不灸，泻法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>关元、气海、血海、三阴交</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>气虚失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摄加足三里、脾俞健脾益气、摄血生血；
+血热内扰加中极、行间、然谷疏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>散</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热邪，兼清虚热；
+气血瘀滞加地机、膈俞理气活血化瘀，使瘀血散尽，血自归经；
+小腹空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>坠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>者加灸百</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会以升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>举陷；
+腹痛拒按者加灸归来以温通胞脉、化瘀止痛</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关元、气海二穴直刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左右</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>，不宜深刺，以免</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤及尚未复原的胞宫，用补法或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>温</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针灸法；
+气虚失摄者，刺血海、三阴交，先泻后补，使益气摄血而不留余邪；
+气血瘀滞及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>血</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热内扰者，刺法亦应补泻兼施，使泻邪而不伤正气，益气而不留瘀浊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶露不下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温经散寒、理气化瘀，针灸并用，先泻后补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关元、气海、地机、三阴交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>气滞血瘀加太冲、膈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>俞疏肝理气以化瘀滞；
+寒凝血瘀加灸神阙、天枢温通胞脉、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>散</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">寒化瘀；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>小腹痛甚加刺天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枢、归来化瘀通络止痛；
+胸腹胀甚加内关、期门宽胸理气、疏肝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关元、气海直刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左右或向下斜刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>，或用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温针灸法；
+地机、三阴交均向上斜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>，亦可加灸。本病</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属本虚标实证，故宜平补平泻或先泻后补</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产后乳少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>气血</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">补益气血，针灸并用，补法；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>肝郁气滞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>者疏肝解郁、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通络下乳，只针不灸，泻法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膻中、乳根、少泽、足三里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气血亏虚可酌情选加气海、血海、膈俞、脾俞、胃俞、三阴交补益气血、化生乳汁；
+肝郁气滞加期门、内关、太冲疏肝理气、通络下乳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>膻中穴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两侧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>乳房凭此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1~1.5寸，乳根向乳房基底部平刺1寸左右，使乳房出现微胀感，还可加灸；
+少泽浅刺2~3分，留针20~30分钟</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子宫脱垂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>脾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾气虚者补益脾肾、升阳固脱，针灸并用，补法；
+湿热下注者清利湿热、举陷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>固胞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，只针不灸，平补平泻</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>百</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans KR"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>会、气海、关元、维道、三阴交</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>脾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>气虚加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>归来、脾俞、足三里健脾益气、举陷固胞；
+肾气虚加太溪、肾俞补益肾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>气、升提胞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宫；
+湿热下注加中极、阴陵泉、蠡沟清热利湿，兼固胞脉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诸穴均常规针刺；
+早期气虚为主者补法加灸；
+后期兼湿热下注者补泻兼施或平补</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泻，不灸；
+百会从前向后平刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1~1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t>寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>，先</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针后灸或针灸同施，也可单行艾炷灸法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不孕症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肾虚胞寒、冲任血虚者益肾暖宫、调和冲任，针灸并用，补法；
+气滞血瘀、痰湿阻滞者行气活血、化痰导滞，以针刺为主，泻法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关元、子宫、归来、三阴交、次髎、稚边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肾虚胞寒加灸肾俞、命门、神阙补益肾阳、暖宫散寒；
+冲任血虚加气海、血海益气养血、充实胞脉；
+气滞血瘀加太冲、膈俞行气活血、疏肝解郁；
+痰湿阻滞加丰隆、阴陵泉化痰通络、利湿导滞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关元、子宫、归来针刺补法加灸或平补平泻；
+三阴交虚补实泻，亦可加灸；
+次髎、稚边要求针尖朝前阴方向刺入2~3寸，有针感向前阴放散为佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更年期综合症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾宁心、调和冲任、疏肝健脾、畅达情志，脾肾阳虚者针灸并用，补法；
+心肾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不交、肝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾阴虚者以针刺为主，平补平泻或补泻兼施</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百会、关元、肾俞、太溪、三阴交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肾不交、心火内扰加心俞、神门、劳宫、内关清虚火、养心神；
+肝肾阴虚、肝阳亢盛加风池、太冲、涌泉疏肝理气、育阴潜阳；
+脾肾阳虚加灸气海、脾俞、足三里健脾益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>气、温</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补肾阳</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本病</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>虚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实夹杂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>，以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>本。各穴均常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规针</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>刺，先</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>或平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83032,6 +89000,20 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Gulim"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -83059,7 +89041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -83103,6 +89085,12 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -97696,10 +103684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2701A8E2-0471-49CF-BACA-BEB1BA6EF552}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -99166,6 +105154,12 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="145.80000000000001">
+      <c r="A57">
+        <v>3102</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>3027</v>
+      </c>
       <c r="C57" s="8" t="s">
         <v>3033</v>
       </c>
@@ -99183,6 +105177,12 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="90">
+      <c r="A58">
+        <v>3103</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>3027</v>
+      </c>
       <c r="C58" s="8" t="s">
         <v>3038</v>
       </c>
@@ -99199,9 +105199,408 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="18">
+    <row r="59" spans="1:8" ht="80.400000000000006">
+      <c r="A59">
+        <v>3104</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>3027</v>
+      </c>
       <c r="C59" s="8" t="s">
         <v>3043</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3044</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>3045</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>3046</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="97.2">
+      <c r="A60">
+        <v>3105</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>3048</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>3049</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>3050</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>3051</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="131.4">
+      <c r="A61">
+        <v>3106</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>3053</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>3054</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>3055</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>3056</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="63.6">
+      <c r="A62">
+        <v>3107</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>3058</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>3059</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>3060</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>3061</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="198">
+      <c r="A63">
+        <v>3201</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>3065</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>3066</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>3067</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="140.4">
+      <c r="C64" s="8" t="s">
+        <v>3069</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>3071</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>3072</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" ht="85.2">
+      <c r="C65" s="13" t="s">
+        <v>3074</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>3075</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>3076</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>3077</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" ht="127.8">
+      <c r="C66" s="8" t="s">
+        <v>3079</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>3080</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>3081</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>3082</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" ht="134.4">
+      <c r="C67" s="8" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>3085</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>3087</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" ht="100.8">
+      <c r="C68" s="8" t="s">
+        <v>3089</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>3090</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>3091</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>3092</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" ht="81.599999999999994">
+      <c r="C69" s="8" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>3095</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>3096</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>3097</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" ht="90">
+      <c r="C70" s="8" t="s">
+        <v>3099</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>3100</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>3101</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>3102</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" ht="219.6">
+      <c r="C71" s="8" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>3106</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>3107</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" ht="122.4">
+      <c r="C72" s="8" t="s">
+        <v>3109</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>3110</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>3111</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>3112</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" ht="135.6">
+      <c r="C73" s="8" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>3115</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>3116</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>3117</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" ht="108">
+      <c r="C74" s="8" t="s">
+        <v>3119</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>3120</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>3121</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>3122</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" ht="146.4">
+      <c r="C75" s="8" t="s">
+        <v>3124</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>3125</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" ht="125.4">
+      <c r="C76" s="8" t="s">
+        <v>3129</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>3130</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>3131</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>3132</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" ht="90">
+      <c r="C77" s="8" t="s">
+        <v>3134</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>3135</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>3136</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>3137</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" ht="102">
+      <c r="C78" s="8" t="s">
+        <v>3139</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>3140</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>3141</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>3142</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" ht="144">
+      <c r="C79" s="8" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>3145</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>3146</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>3147</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" ht="97.8">
+      <c r="C80" s="8" t="s">
+        <v>3149</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>3150</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>3151</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>3152</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>3153</v>
       </c>
     </row>
   </sheetData>
